--- a/medicine/Mort/Cimetière_du_Nord_(Rouen)/Cimetière_du_Nord_(Rouen).xlsx
+++ b/medicine/Mort/Cimetière_du_Nord_(Rouen)/Cimetière_du_Nord_(Rouen).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(Rouen)</t>
+          <t>Cimetière_du_Nord_(Rouen)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Nord est un cimetière de la ville de Rouen, situé à l'est du cimetière monumental. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(Rouen)</t>
+          <t>Cimetière_du_Nord_(Rouen)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière a été mis en service le 15 juillet 1880, en remplacement du cimetière de la Jatte situé à l'est de la place du Boulingrin[1]. Il est affecté initialement aux personnes décédées dans les paroisses de la Cathédrale, Saint-Ouen, Saint-Nicaise, Saint-Vivien et Saint-Hilaire, ainsi qu'aux protestants domiciliés sur la rive droite. À partir de 1885, les personnes décédées dans la section Est de la paroisse Saint-Romain le sont aussi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière a été mis en service le 15 juillet 1880, en remplacement du cimetière de la Jatte situé à l'est de la place du Boulingrin. Il est affecté initialement aux personnes décédées dans les paroisses de la Cathédrale, Saint-Ouen, Saint-Nicaise, Saint-Vivien et Saint-Hilaire, ainsi qu'aux protestants domiciliés sur la rive droite. À partir de 1885, les personnes décédées dans la section Est de la paroisse Saint-Romain le sont aussi.
 Il possède un calvaire et des tombes de soldats allemands.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(Rouen)</t>
+          <t>Cimetière_du_Nord_(Rouen)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Juliette Billard (1889-1975), première femme architecte de France.
 Roger Blondel (1912-1981), sculpteur sur pierre, il a participé à la restauration de plusieurs monuments rouennais.
